--- a/code/tables/main_corr.xlsx
+++ b/code/tables/main_corr.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippe/Desktop/base2/code/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippe/Desktop/projects/base2/code/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75CC103-4BD9-AD4F-9356-B1F726B9E567}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CA103D-01E7-A44F-80F5-4DFBA17223B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="1840" windowWidth="28040" windowHeight="16140" xr2:uid="{FFB53F13-BE38-F341-8A27-3D33575CD179}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="20" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3414,31 +3414,31 @@
         <v>4</v>
       </c>
       <c r="F28">
-        <v>1.6446718500491401E-2</v>
+        <v>2.6664689005969602E-2</v>
       </c>
       <c r="G28">
-        <v>0.29699340415160702</v>
+        <v>0.48161474052321401</v>
       </c>
       <c r="H28">
-        <v>0.61666965665825602</v>
+        <v>0.68479860567699802</v>
       </c>
       <c r="I28">
-        <v>1.8130897953121401E-2</v>
+        <v>3.6478954508410502E-2</v>
       </c>
       <c r="J28">
-        <v>0.32741570562919498</v>
+        <v>0.65908334361016996</v>
       </c>
       <c r="K28">
-        <v>0.62821818068718704</v>
+        <v>0.74484624153368395</v>
       </c>
       <c r="L28">
-        <v>1.8644632864195099E-2</v>
+        <v>3.6292722726476601E-2</v>
       </c>
       <c r="M28">
-        <v>0.33669613756571098</v>
+        <v>0.655714152587062</v>
       </c>
       <c r="N28">
-        <v>0.63171869239260803</v>
+        <v>0.74376472837104302</v>
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" si="15"/>
@@ -3649,15 +3649,15 @@
       <c r="S31" s="5"/>
       <c r="T31" s="3" t="str">
         <f>TEXT(F28,"#.000")</f>
-        <v>.016</v>
+        <v>.027</v>
       </c>
       <c r="U31" s="3" t="str">
         <f>TEXT(G28,"0.000")</f>
-        <v>0.297</v>
+        <v>0.482</v>
       </c>
       <c r="V31" s="3" t="str">
         <f>IF(H28&lt;0.00095,TEXT(H28,"0E+0"),TEXT(H28,"#.000"))</f>
-        <v>.617</v>
+        <v>.685</v>
       </c>
       <c r="W31" s="1" t="str">
         <f>IF(H28="","",IF(H28*1&lt;0.05,"*",""))</f>
@@ -3666,15 +3666,15 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3" t="str">
         <f>TEXT(I28,"#.000")</f>
-        <v>.018</v>
+        <v>.036</v>
       </c>
       <c r="Z31" s="3" t="str">
         <f>TEXT(J28,"0.000")</f>
-        <v>0.327</v>
+        <v>0.659</v>
       </c>
       <c r="AA31" s="3" t="str">
         <f>IF(K28&lt;0.00095,TEXT(K28,"0E+0"),TEXT(K28,"#.000"))</f>
-        <v>.628</v>
+        <v>.745</v>
       </c>
       <c r="AB31" s="1" t="str">
         <f>IF(K28="","",IF(K28*1&lt;0.05,"*",""))</f>
@@ -3683,15 +3683,15 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3" t="str">
         <f>TEXT(L28,"#.000")</f>
-        <v>.019</v>
+        <v>.036</v>
       </c>
       <c r="AE31" s="3" t="str">
         <f>TEXT(M28,"0.000")</f>
-        <v>0.337</v>
+        <v>0.656</v>
       </c>
       <c r="AF31" s="3" t="str">
         <f>IF(N28&lt;0.00095,TEXT(N28,"0E+0"),TEXT(N28,"#.000"))</f>
-        <v>.632</v>
+        <v>.744</v>
       </c>
       <c r="AG31" s="1" t="str">
         <f>IF(N28="","",IF(N28*1&lt;0.05,"*",""))</f>

--- a/code/tables/main_corr.xlsx
+++ b/code/tables/main_corr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippe/Desktop/projects/base2/code/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CA103D-01E7-A44F-80F5-4DFBA17223B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2A01D3-D5CE-1844-BC53-0B8D86E3A9CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="1840" windowWidth="28040" windowHeight="16140" xr2:uid="{FFB53F13-BE38-F341-8A27-3D33575CD179}"/>
+    <workbookView xWindow="10140" yWindow="1840" windowWidth="28560" windowHeight="17600" xr2:uid="{FFB53F13-BE38-F341-8A27-3D33575CD179}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="20" r:id="rId1"/>
@@ -195,15 +195,9 @@
     <t>GammaGTGGTUL</t>
   </si>
   <si>
-    <t>Gamma-glutamyltransferase</t>
-  </si>
-  <si>
     <t>HarnsaeuremgdL</t>
   </si>
   <si>
-    <t>Urea</t>
-  </si>
-  <si>
     <t>TNF1</t>
   </si>
   <si>
@@ -271,6 +265,12 @@
   </si>
   <si>
     <t>Tumor necrosis factor-alpha</t>
+  </si>
+  <si>
+    <t>Gamma-glutamyl-transferase</t>
+  </si>
+  <si>
+    <t>Uric acid</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C079586F-4EFB-B347-8B56-DC7FED444F97}">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:N1"/>
@@ -686,7 +686,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -702,7 +702,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="P1" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -766,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>2</v>
@@ -776,35 +776,35 @@
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="AG2" s="2"/>
     </row>
@@ -852,7 +852,7 @@
         <v>2.3232371873279301E-2</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -941,7 +941,7 @@
         <v>.285</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f>IF(H3="","",IF(H3*1&lt;0.05,"*",""))</f>
+        <f>IF(H3="","",IF(H3*1&lt;0.001,"**",IF(H3*1&lt;0.05,"*","")))</f>
         <v/>
       </c>
       <c r="X4" s="3"/>
@@ -958,7 +958,7 @@
         <v>.007</v>
       </c>
       <c r="AB4" s="1" t="str">
-        <f>IF(K3="","",IF(K3*1&lt;0.05,"*",""))</f>
+        <f>IF(K3="","",IF(K3*1&lt;0.001,"**",IF(K3*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
       <c r="AC4" s="3"/>
@@ -975,7 +975,7 @@
         <v>.023</v>
       </c>
       <c r="AG4" s="1" t="str">
-        <f>IF(N3="","",IF(N3*1&lt;0.05,"*",""))</f>
+        <f>IF(N3="","",IF(N3*1&lt;0.001,"**",IF(N3*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
         <v>.027</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f t="shared" ref="W5:W24" si="6">IF(H4="","",IF(H4*1&lt;0.05,"*",""))</f>
+        <f t="shared" ref="W5:W24" si="6">IF(H4="","",IF(H4*1&lt;0.001,"**",IF(H4*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
       <c r="X5" s="3"/>
@@ -1065,24 +1065,24 @@
         <v>.016</v>
       </c>
       <c r="AB5" s="1" t="str">
-        <f t="shared" ref="AB5:AB24" si="10">IF(K4="","",IF(K4*1&lt;0.05,"*",""))</f>
+        <f>IF(K4="","",IF(K4*1&lt;0.001,"**",IF(K4*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3" t="str">
-        <f t="shared" ref="AD5:AD24" si="11">TEXT(L4,"#.000")</f>
+        <f t="shared" ref="AD5:AD24" si="10">TEXT(L4,"#.000")</f>
         <v>-.158</v>
       </c>
       <c r="AE5" s="3" t="str">
-        <f t="shared" ref="AE5:AE24" si="12">TEXT(M4,"0.000")</f>
+        <f t="shared" ref="AE5:AE24" si="11">TEXT(M4,"0.000")</f>
         <v>-2.347</v>
       </c>
       <c r="AF5" s="3" t="str">
-        <f t="shared" ref="AF5:AF24" si="13">IF(N4&lt;0.00095,TEXT(N4,"0E+0"),TEXT(N4,"#.000"))</f>
+        <f t="shared" ref="AF5:AF24" si="12">IF(N4&lt;0.00095,TEXT(N4,"0E+0"),TEXT(N4,"#.000"))</f>
         <v>.010</v>
       </c>
       <c r="AG5" s="1" t="str">
-        <f t="shared" ref="AG5:AG24" si="14">IF(N4="","",IF(N4*1&lt;0.05,"*",""))</f>
+        <f t="shared" ref="AG5:AG24" si="13">IF(N4="","",IF(N4*1&lt;0.001,"**",IF(N4*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
     </row>
@@ -1172,24 +1172,24 @@
         <v>.060</v>
       </c>
       <c r="AB6" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(K5="","",IF(K5*1&lt;0.001,"**",IF(K5*1&lt;0.05,"*","")))</f>
         <v/>
       </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>-.079</v>
+      </c>
+      <c r="AE6" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>-.079</v>
-      </c>
-      <c r="AE6" s="3" t="str">
+        <v>-1.425</v>
+      </c>
+      <c r="AF6" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>-1.425</v>
-      </c>
-      <c r="AF6" s="3" t="str">
+        <v>.078</v>
+      </c>
+      <c r="AG6" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.078</v>
-      </c>
-      <c r="AG6" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1279,24 +1279,24 @@
         <v>.278</v>
       </c>
       <c r="AB7" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(K6="","",IF(K6*1&lt;0.001,"**",IF(K6*1&lt;0.05,"*","")))</f>
         <v/>
       </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.041</v>
+      </c>
+      <c r="AE7" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.041</v>
-      </c>
-      <c r="AE7" s="3" t="str">
+        <v>0.728</v>
+      </c>
+      <c r="AF7" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>0.728</v>
-      </c>
-      <c r="AF7" s="3" t="str">
+        <v>.234</v>
+      </c>
+      <c r="AG7" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.234</v>
-      </c>
-      <c r="AG7" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1386,24 +1386,24 @@
         <v>.502</v>
       </c>
       <c r="AB8" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AB8:AB24" si="14">IF(K7="","",IF(K7*1&lt;0.001,"**",IF(K7*1&lt;0.05,"*","")))</f>
         <v/>
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>-.012</v>
+      </c>
+      <c r="AE8" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>-.012</v>
-      </c>
-      <c r="AE8" s="3" t="str">
+        <v>-0.219</v>
+      </c>
+      <c r="AF8" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>-0.219</v>
-      </c>
-      <c r="AF8" s="3" t="str">
+        <v>.586</v>
+      </c>
+      <c r="AG8" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.586</v>
-      </c>
-      <c r="AG8" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1493,24 +1493,24 @@
         <v>.378</v>
       </c>
       <c r="AB9" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.035</v>
+      </c>
+      <c r="AE9" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.035</v>
-      </c>
-      <c r="AE9" s="3" t="str">
+        <v>0.576</v>
+      </c>
+      <c r="AF9" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>0.576</v>
-      </c>
-      <c r="AF9" s="3" t="str">
+        <v>.282</v>
+      </c>
+      <c r="AG9" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.282</v>
-      </c>
-      <c r="AG9" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1600,24 +1600,24 @@
         <v>.836</v>
       </c>
       <c r="AB10" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>-.077</v>
+      </c>
+      <c r="AE10" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>-.077</v>
-      </c>
-      <c r="AE10" s="3" t="str">
+        <v>-0.967</v>
+      </c>
+      <c r="AF10" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>-0.967</v>
-      </c>
-      <c r="AF10" s="3" t="str">
+        <v>.832</v>
+      </c>
+      <c r="AG10" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.832</v>
-      </c>
-      <c r="AG10" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1707,24 +1707,24 @@
         <v>.341</v>
       </c>
       <c r="AB11" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.051</v>
+      </c>
+      <c r="AE11" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.051</v>
-      </c>
-      <c r="AE11" s="3" t="str">
+        <v>0.634</v>
+      </c>
+      <c r="AF11" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>0.634</v>
-      </c>
-      <c r="AF11" s="3" t="str">
+        <v>.264</v>
+      </c>
+      <c r="AG11" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.264</v>
-      </c>
-      <c r="AG11" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1814,24 +1814,24 @@
         <v>.023</v>
       </c>
       <c r="AB12" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>*</v>
       </c>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.106</v>
+      </c>
+      <c r="AE12" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.106</v>
-      </c>
-      <c r="AE12" s="3" t="str">
+        <v>1.323</v>
+      </c>
+      <c r="AF12" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>1.323</v>
-      </c>
-      <c r="AF12" s="3" t="str">
+        <v>.094</v>
+      </c>
+      <c r="AG12" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.094</v>
-      </c>
-      <c r="AG12" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -1921,24 +1921,24 @@
         <v>.087</v>
       </c>
       <c r="AB13" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.061</v>
+      </c>
+      <c r="AE13" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.061</v>
-      </c>
-      <c r="AE13" s="3" t="str">
+        <v>1.095</v>
+      </c>
+      <c r="AF13" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>1.095</v>
-      </c>
-      <c r="AF13" s="3" t="str">
+        <v>.137</v>
+      </c>
+      <c r="AG13" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.137</v>
-      </c>
-      <c r="AG13" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2028,24 +2028,24 @@
         <v>.215</v>
       </c>
       <c r="AB14" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.054</v>
+      </c>
+      <c r="AE14" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.054</v>
-      </c>
-      <c r="AE14" s="3" t="str">
+        <v>0.949</v>
+      </c>
+      <c r="AF14" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>0.949</v>
-      </c>
-      <c r="AF14" s="3" t="str">
+        <v>.172</v>
+      </c>
+      <c r="AG14" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.172</v>
-      </c>
-      <c r="AG14" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2135,24 +2135,24 @@
         <v>.280</v>
       </c>
       <c r="AB15" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.040</v>
+      </c>
+      <c r="AE15" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.040</v>
-      </c>
-      <c r="AE15" s="3" t="str">
+        <v>0.703</v>
+      </c>
+      <c r="AF15" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>0.703</v>
-      </c>
-      <c r="AF15" s="3" t="str">
+        <v>.241</v>
+      </c>
+      <c r="AG15" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.241</v>
-      </c>
-      <c r="AG15" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2242,24 +2242,24 @@
         <v>.010</v>
       </c>
       <c r="AB16" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>*</v>
       </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.116</v>
+      </c>
+      <c r="AE16" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.116</v>
-      </c>
-      <c r="AE16" s="3" t="str">
+        <v>1.979</v>
+      </c>
+      <c r="AF16" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>1.979</v>
-      </c>
-      <c r="AF16" s="3" t="str">
+        <v>.024</v>
+      </c>
+      <c r="AG16" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.024</v>
-      </c>
-      <c r="AG16" s="1" t="str">
-        <f t="shared" si="14"/>
         <v>*</v>
       </c>
     </row>
@@ -2349,24 +2349,24 @@
         <v>.085</v>
       </c>
       <c r="AB17" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.058</v>
+      </c>
+      <c r="AE17" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.058</v>
-      </c>
-      <c r="AE17" s="3" t="str">
+        <v>0.960</v>
+      </c>
+      <c r="AF17" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>0.960</v>
-      </c>
-      <c r="AF17" s="3" t="str">
+        <v>.169</v>
+      </c>
+      <c r="AG17" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.169</v>
-      </c>
-      <c r="AG17" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2456,24 +2456,24 @@
         <v>.968</v>
       </c>
       <c r="AB18" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>-.104</v>
+      </c>
+      <c r="AE18" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>-.104</v>
-      </c>
-      <c r="AE18" s="3" t="str">
+        <v>-1.878</v>
+      </c>
+      <c r="AF18" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>-1.878</v>
-      </c>
-      <c r="AF18" s="3" t="str">
+        <v>.969</v>
+      </c>
+      <c r="AG18" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.969</v>
-      </c>
-      <c r="AG18" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2563,24 +2563,24 @@
         <v>.015</v>
       </c>
       <c r="AB19" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>*</v>
       </c>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.124</v>
+      </c>
+      <c r="AE19" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.124</v>
-      </c>
-      <c r="AE19" s="3" t="str">
+        <v>2.078</v>
+      </c>
+      <c r="AF19" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>2.078</v>
-      </c>
-      <c r="AF19" s="3" t="str">
+        <v>.019</v>
+      </c>
+      <c r="AG19" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.019</v>
-      </c>
-      <c r="AG19" s="1" t="str">
-        <f t="shared" si="14"/>
         <v>*</v>
       </c>
     </row>
@@ -2670,24 +2670,24 @@
         <v>.189</v>
       </c>
       <c r="AB20" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.037</v>
+      </c>
+      <c r="AE20" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.037</v>
-      </c>
-      <c r="AE20" s="3" t="str">
+        <v>0.610</v>
+      </c>
+      <c r="AF20" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>0.610</v>
-      </c>
-      <c r="AF20" s="3" t="str">
+        <v>.271</v>
+      </c>
+      <c r="AG20" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.271</v>
-      </c>
-      <c r="AG20" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -2777,33 +2777,33 @@
         <v>.243</v>
       </c>
       <c r="AB21" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.009</v>
+      </c>
+      <c r="AE21" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.009</v>
-      </c>
-      <c r="AE21" s="3" t="str">
+        <v>0.165</v>
+      </c>
+      <c r="AF21" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>0.165</v>
-      </c>
-      <c r="AF21" s="3" t="str">
+        <v>.434</v>
+      </c>
+      <c r="AG21" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.434</v>
-      </c>
-      <c r="AG21" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Gamma-glutamyltransferase</v>
+        <v>Gamma-glutamyl-transferase</v>
       </c>
       <c r="Q22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2884,33 +2884,33 @@
         <v>.187</v>
       </c>
       <c r="AB22" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.022</v>
+      </c>
+      <c r="AE22" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.022</v>
-      </c>
-      <c r="AE22" s="3" t="str">
+        <v>0.402</v>
+      </c>
+      <c r="AF22" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>0.402</v>
-      </c>
-      <c r="AF22" s="3" t="str">
+        <v>.344</v>
+      </c>
+      <c r="AG22" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.344</v>
-      </c>
-      <c r="AG22" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Urea</v>
+        <v>Uric acid</v>
       </c>
       <c r="Q23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2991,33 +2991,33 @@
         <v>.064</v>
       </c>
       <c r="AB23" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.075</v>
+      </c>
+      <c r="AE23" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.075</v>
-      </c>
-      <c r="AE23" s="3" t="str">
+        <v>1.350</v>
+      </c>
+      <c r="AF23" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>1.350</v>
-      </c>
-      <c r="AF23" s="3" t="str">
+        <v>.089</v>
+      </c>
+      <c r="AG23" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.089</v>
-      </c>
-      <c r="AG23" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -3098,33 +3098,33 @@
         <v>.126</v>
       </c>
       <c r="AB24" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>.083</v>
+      </c>
+      <c r="AE24" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>.083</v>
-      </c>
-      <c r="AE24" s="3" t="str">
+        <v>1.438</v>
+      </c>
+      <c r="AF24" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>1.438</v>
-      </c>
-      <c r="AF24" s="3" t="str">
+        <v>.076</v>
+      </c>
+      <c r="AG24" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>.076</v>
-      </c>
-      <c r="AG24" s="1" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -3163,7 +3163,7 @@
         <v>8.8594098917959604E-3</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -3185,10 +3185,10 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -3252,7 +3252,7 @@
         <v>.001</v>
       </c>
       <c r="W26" s="1" t="str">
-        <f>IF(H24="","",IF(H24*1&lt;0.05,"*",""))</f>
+        <f>IF(H24="","",IF(H24*1&lt;0.001,"**",IF(H24*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
       <c r="X26" s="3"/>
@@ -3269,7 +3269,7 @@
         <v>.007</v>
       </c>
       <c r="AB26" s="1" t="str">
-        <f>IF(K24="","",IF(K24*1&lt;0.05,"*",""))</f>
+        <f>IF(K24="","",IF(K24*1&lt;0.001,"**",IF(K24*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
       <c r="AC26" s="3"/>
@@ -3286,16 +3286,16 @@
         <v>8E-4</v>
       </c>
       <c r="AG26" s="1" t="str">
-        <f>IF(N24="","",IF(N24*1&lt;0.05,"*",""))</f>
-        <v>*</v>
+        <f>IF(N24="","",IF(N24*1&lt;0.001,"**",IF(N24*1&lt;0.05,"*","")))</f>
+        <v>**</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -3359,7 +3359,7 @@
         <v>.067</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f>IF(H25="","",IF(H25*1&lt;0.05,"*",""))</f>
+        <f t="shared" ref="W27:W29" si="16">IF(H25="","",IF(H25*1&lt;0.001,"**",IF(H25*1&lt;0.05,"*","")))</f>
         <v/>
       </c>
       <c r="X27" s="3"/>
@@ -3376,7 +3376,7 @@
         <v>.007</v>
       </c>
       <c r="AB27" s="1" t="str">
-        <f>IF(K25="","",IF(K25*1&lt;0.05,"*",""))</f>
+        <f>IF(K25="","",IF(K25*1&lt;0.001,"**",IF(K25*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
       <c r="AC27" s="3"/>
@@ -3393,16 +3393,16 @@
         <v>.009</v>
       </c>
       <c r="AG27" s="1" t="str">
-        <f>IF(N25="","",IF(N25*1&lt;0.05,"*",""))</f>
+        <f>IF(N25="","",IF(N25*1&lt;0.001,"**",IF(N25*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -3466,7 +3466,7 @@
         <v>.065</v>
       </c>
       <c r="W28" s="1" t="str">
-        <f>IF(H26="","",IF(H26*1&lt;0.05,"*",""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X28" s="3"/>
@@ -3483,7 +3483,7 @@
         <v>.003</v>
       </c>
       <c r="AB28" s="1" t="str">
-        <f>IF(K26="","",IF(K26*1&lt;0.05,"*",""))</f>
+        <f>IF(K26="","",IF(K26*1&lt;0.001,"**",IF(K26*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
       <c r="AC28" s="3"/>
@@ -3500,16 +3500,16 @@
         <v>.005</v>
       </c>
       <c r="AG28" s="1" t="str">
-        <f>IF(N26="","",IF(N26*1&lt;0.05,"*",""))</f>
+        <f>IF(N26="","",IF(N26*1&lt;0.001,"**",IF(N26*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -3573,7 +3573,7 @@
         <v>.115</v>
       </c>
       <c r="W29" s="1" t="str">
-        <f>IF(H27="","",IF(H27*1&lt;0.05,"*",""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X29" s="3"/>
@@ -3590,7 +3590,7 @@
         <v>.007</v>
       </c>
       <c r="AB29" s="1" t="str">
-        <f>IF(K27="","",IF(K27*1&lt;0.05,"*",""))</f>
+        <f>IF(K27="","",IF(K27*1&lt;0.001,"**",IF(K27*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
       <c r="AC29" s="3"/>
@@ -3607,13 +3607,13 @@
         <v>.013</v>
       </c>
       <c r="AG29" s="1" t="str">
-        <f>IF(N27="","",IF(N27*1&lt;0.05,"*",""))</f>
+        <f>IF(N27="","",IF(N27*1&lt;0.001,"**",IF(N27*1&lt;0.05,"*","")))</f>
         <v>*</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P30" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -3635,15 +3635,15 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P31" s="1" t="str">
-        <f t="shared" ref="P31:R32" si="16">B28</f>
+        <f t="shared" ref="P31:R32" si="17">B28</f>
         <v>Future time perspective</v>
       </c>
       <c r="Q31" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>332</v>
       </c>
       <c r="S31" s="5"/>
@@ -3660,7 +3660,7 @@
         <v>.685</v>
       </c>
       <c r="W31" s="1" t="str">
-        <f>IF(H28="","",IF(H28*1&lt;0.05,"*",""))</f>
+        <f>IF(H28="","",IF(H28*1&lt;0.001,"**",IF(H28*1&lt;0.05,"*","")))</f>
         <v/>
       </c>
       <c r="X31" s="3"/>
@@ -3677,7 +3677,7 @@
         <v>.745</v>
       </c>
       <c r="AB31" s="1" t="str">
-        <f>IF(K28="","",IF(K28*1&lt;0.05,"*",""))</f>
+        <f t="shared" ref="AB31:AB37" si="18">IF(K28="","",IF(K28*1&lt;0.001,"**",IF(K28*1&lt;0.05,"*","")))</f>
         <v/>
       </c>
       <c r="AC31" s="3"/>
@@ -3694,21 +3694,21 @@
         <v>.744</v>
       </c>
       <c r="AG31" s="1" t="str">
-        <f>IF(N28="","",IF(N28*1&lt;0.05,"*",""))</f>
+        <f>IF(N28="","",IF(N28*1&lt;0.001,"**",IF(N28*1&lt;0.05,"*","")))</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P32" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Consideration of future consequences</v>
       </c>
       <c r="Q32" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>335</v>
       </c>
       <c r="S32" s="5"/>
@@ -3725,7 +3725,7 @@
         <v>.666</v>
       </c>
       <c r="W32" s="1" t="str">
-        <f>IF(H29="","",IF(H29*1&lt;0.05,"*",""))</f>
+        <f>IF(H29="","",IF(H29*1&lt;0.001,"**",IF(H29*1&lt;0.05,"*","")))</f>
         <v/>
       </c>
       <c r="X32" s="3"/>
@@ -3742,7 +3742,7 @@
         <v>.269</v>
       </c>
       <c r="AB32" s="1" t="str">
-        <f>IF(K29="","",IF(K29*1&lt;0.05,"*",""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC32" s="3"/>
@@ -3759,7 +3759,39 @@
         <v>.387</v>
       </c>
       <c r="AG32" s="1" t="str">
-        <f>IF(N29="","",IF(N29*1&lt;0.05,"*",""))</f>
+        <f>IF(N29="","",IF(N29*1&lt;0.001,"**",IF(N29*1&lt;0.05,"*","")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="28:33" x14ac:dyDescent="0.2">
+      <c r="AB33" s="1"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="28:33" x14ac:dyDescent="0.2">
+      <c r="AB34" s="1"/>
+      <c r="AG34" s="1"/>
+    </row>
+    <row r="35" spans="28:33" x14ac:dyDescent="0.2">
+      <c r="AB35" s="1"/>
+      <c r="AG35" s="1"/>
+    </row>
+    <row r="36" spans="28:33" x14ac:dyDescent="0.2">
+      <c r="AB36" s="1"/>
+      <c r="AG36" s="1"/>
+    </row>
+    <row r="37" spans="28:33" x14ac:dyDescent="0.2">
+      <c r="AB37" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG37" s="1" t="str">
+        <f>IF(N34="","",IF(N34*1&lt;0.001,"**",IF(N34*1&lt;0.05,"*","")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="28:33" x14ac:dyDescent="0.2">
+      <c r="AG38" s="1" t="str">
+        <f>IF(N35="","",IF(N35*1&lt;0.001,"**",IF(N35*1&lt;0.05,"*","")))</f>
         <v/>
       </c>
     </row>
